--- a/data/trans_camb/P19-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.810956723133724</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-9.089875705851725</v>
+        <v>-9.08987570585173</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.614468965962895</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1429911475334388</v>
+        <v>-0.5971289351915793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.401971893736858</v>
+        <v>7.927756278140984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.1068990010705</v>
+        <v>-5.600228140879511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.81002945320191</v>
+        <v>-8.411455038891482</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.577395879330314</v>
+        <v>-2.283477978548862</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-16.17337345350354</v>
+        <v>-16.82713332978985</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.148929424300701</v>
+        <v>-2.508915137033781</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.45415523872515</v>
+        <v>4.273791805046544</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.977762655514454</v>
+        <v>-8.307147669576393</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.21707651041752</v>
+        <v>11.02517891746184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.09190484220115</v>
+        <v>19.67269016929992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.08930631059464</v>
+        <v>10.32255706913807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.081670463232101</v>
+        <v>4.388187239721907</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.84487386965875</v>
+        <v>10.45524820523576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.9677416646693314</v>
+        <v>-0.3065048181162359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.177822775074601</v>
+        <v>5.832589010138508</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.40241935127597</v>
+        <v>13.55092362375233</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.989460363532612</v>
+        <v>2.619954264989428</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.09464655954330979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2257505200761609</v>
+        <v>-0.2257505200761611</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.04987909648658069</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.00908865078667075</v>
+        <v>-0.02352237474524433</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2626268447123599</v>
+        <v>0.288117108931447</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1858676921367488</v>
+        <v>-0.2204981566010663</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2004107316267102</v>
+        <v>-0.2024649316990206</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06004491537789816</v>
+        <v>-0.05415938780227158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3875463428242755</v>
+        <v>-0.3977893820120795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06265138536074906</v>
+        <v>-0.07243736501351077</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1309147336928283</v>
+        <v>0.1247726461731994</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.263590960700555</v>
+        <v>-0.2439526263476535</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5106299402199886</v>
+        <v>0.5005549234021639</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9189631764012182</v>
+        <v>0.8965418912326589</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4918241853781896</v>
+        <v>0.4422614884128132</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1068330167680278</v>
+        <v>0.1182636742694888</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.294085466637581</v>
+        <v>0.2859851803936418</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03052454482580564</v>
+        <v>-0.008088940489486267</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2091749368683544</v>
+        <v>0.191028786253914</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.444095870589762</v>
+        <v>0.4440590145710572</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.06423390890759061</v>
+        <v>0.09119086878664594</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.459257658131141</v>
+        <v>-2.156823161288171</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.497540892223079</v>
+        <v>2.35161858273885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.887413830709388</v>
+        <v>-4.453762419018978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.549635193802103</v>
+        <v>-5.303709275433151</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.136277886913536</v>
+        <v>3.715457617177399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.639702614244889</v>
+        <v>-6.380747898513476</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.50900355183535</v>
+        <v>-2.464602395418896</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.22183950226243</v>
+        <v>4.400396982892958</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.545776239489876</v>
+        <v>-3.784979170491617</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.117567386573581</v>
+        <v>7.706116520852952</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.28614324358412</v>
+        <v>12.42019553599911</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.661797209473501</v>
+        <v>8.308832036567933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.434451412417256</v>
+        <v>5.525834878800088</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.4043190380277</v>
+        <v>14.62976738316538</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.261710787694641</v>
+        <v>5.59084706881258</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.512701125687947</v>
+        <v>5.042613232354284</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.2790807708047</v>
+        <v>12.41284844245033</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.266471407829647</v>
+        <v>4.721619944256772</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08451884606398878</v>
+        <v>-0.07144936996743186</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.08659873651204211</v>
+        <v>0.08105964284626148</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1725078346273545</v>
+        <v>-0.157154713798708</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1547610173252403</v>
+        <v>-0.1440363611764783</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08207010451493027</v>
+        <v>0.102306588106521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1854142369213411</v>
+        <v>-0.1735092123846728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07683527915682446</v>
+        <v>-0.07602445832016856</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.130475341061274</v>
+        <v>0.1400186765296786</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1132065821986746</v>
+        <v>-0.1215688461435602</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2858172103532395</v>
+        <v>0.3233324496130022</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5290584275466078</v>
+        <v>0.5070063986882182</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3047367924586215</v>
+        <v>0.335236182311201</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1737488675109177</v>
+        <v>0.1840014892172527</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4720621535788955</v>
+        <v>0.4834159365355983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.177580864134373</v>
+        <v>0.1822013277022872</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1950122916519766</v>
+        <v>0.1751984045329538</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4383719541672799</v>
+        <v>0.4417614257000038</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1826293416937134</v>
+        <v>0.1678087344293741</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.389323153552297</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4355039012057305</v>
+        <v>0.4355039012057249</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.182168935153416</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.625741807668827</v>
+        <v>-5.251937348456175</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.753013527048505</v>
+        <v>-2.693561903787785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.590283807652239</v>
+        <v>-4.814991563502182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.899674507383314</v>
+        <v>-4.098634005749863</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.090171392953706</v>
+        <v>-1.990397767223223</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.05479441565981588</v>
+        <v>-0.08951390077310299</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.999164744057759</v>
+        <v>-2.971646124448203</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.13044280062612</v>
+        <v>-0.9378875561933641</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.8691264887588889</v>
+        <v>-0.6662492756254605</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.875565957430215</v>
+        <v>4.666233917434909</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.336038404304296</v>
+        <v>7.288271233456135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.072745322562064</v>
+        <v>5.661836699485834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.280544149112345</v>
+        <v>6.212726832808988</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.261056823625799</v>
+        <v>8.052243284306103</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.809630007604634</v>
+        <v>10.01925926654672</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.322297540594533</v>
+        <v>4.077461487136653</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.116080223463428</v>
+        <v>6.092263773956405</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.517848362468202</v>
+        <v>6.242047556329188</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.09164467146328821</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.01670414982905991</v>
+        <v>0.0167041498290597</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.03577798557636604</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1624720110163239</v>
+        <v>-0.1909953476206485</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09736721030716354</v>
+        <v>-0.09577035758953899</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1642476179047559</v>
+        <v>-0.1700424893979004</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1102345199206129</v>
+        <v>-0.1172649314901898</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.0597742934380926</v>
+        <v>-0.05167169713883413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.003798228871967942</v>
+        <v>-0.002263820274907183</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0935320332853328</v>
+        <v>-0.0963953497787151</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03587863959484047</v>
+        <v>-0.02955288636032991</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.02760349940407268</v>
+        <v>-0.02028477314983287</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2102965874755811</v>
+        <v>0.19763788218323</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3096926983640094</v>
+        <v>0.3050129588714821</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2150347787901824</v>
+        <v>0.2345592726770236</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2081549042642677</v>
+        <v>0.2036380285361859</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.266697981579035</v>
+        <v>0.2704139357413255</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3226869513564589</v>
+        <v>0.3332679831141354</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1545061768703505</v>
+        <v>0.1481519967442632</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2186113643143531</v>
+        <v>0.2214091028395025</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.235949407911494</v>
+        <v>0.2250440758253307</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.039044370651073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.046586561987857</v>
+        <v>2.046586561987862</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.8436279249713</v>
@@ -1306,7 +1306,7 @@
         <v>0.9423718435209172</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.08028342618919826</v>
+        <v>0.08028342618920381</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.348410823216987</v>
+        <v>-7.256779534231274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.435033608155512</v>
+        <v>-2.685255214721318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.828466700456845</v>
+        <v>-3.370632890049742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.73753495925204</v>
+        <v>-10.60727387356319</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.458207501956631</v>
+        <v>-6.831089217297367</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.520756253202417</v>
+        <v>-7.469783340822898</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-6.951791733287266</v>
+        <v>-6.879917242507688</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.323077842191037</v>
+        <v>-3.346940176996776</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.454505556539023</v>
+        <v>-3.845441120959436</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.408784719314197</v>
+        <v>4.36191101790174</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.370914553102896</v>
+        <v>8.540627266344778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.347570464821368</v>
+        <v>7.808207173805494</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9300574731530552</v>
+        <v>0.9516451535494989</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.148613920065386</v>
+        <v>3.843082287186987</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.92570504349064</v>
+        <v>2.956321911290524</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.458306570549593</v>
+        <v>1.057074041364206</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.89314438454551</v>
+        <v>5.077365331216085</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.908791947810323</v>
+        <v>3.722302849505734</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1117078474434994</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07522752272204461</v>
+        <v>0.07522752272204482</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.129694702179881</v>
@@ -1411,7 +1411,7 @@
         <v>0.02920895042742456</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.002488396307494347</v>
+        <v>0.002488396307494519</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2138877633112591</v>
+        <v>-0.2445889563946462</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08256094671276827</v>
+        <v>-0.08885759722615641</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1258521932777079</v>
+        <v>-0.1142015964745644</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2649440110598318</v>
+        <v>-0.2683493432091845</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1625798522918596</v>
+        <v>-0.1669255005953569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1798447183462525</v>
+        <v>-0.1831975867308751</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2039994655087043</v>
+        <v>-0.1986955834382321</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.09761110372292142</v>
+        <v>-0.09754052668758348</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.09953873711731592</v>
+        <v>-0.1097164801430221</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1821975224946447</v>
+        <v>0.1688344000367824</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3418479063152772</v>
+        <v>0.3621833139690047</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3058808210187375</v>
+        <v>0.3221632579731908</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03182558665528489</v>
+        <v>0.01870091885066798</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1528858182924446</v>
+        <v>0.1103666291387725</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08900978594646769</v>
+        <v>0.08699645719400582</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04888428344051897</v>
+        <v>0.03521023225295162</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1657744701552126</v>
+        <v>0.1637681478378894</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1316460806958381</v>
+        <v>0.1263105281570187</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.304367126995446</v>
+        <v>-9.450693194822858</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.163467144484057</v>
+        <v>-3.200505058838733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.495848235186505</v>
+        <v>-4.237812183888557</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.32222204529209</v>
+        <v>-8.341916128252491</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.590566826416775</v>
+        <v>-4.916685760236743</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.472091461409299</v>
+        <v>-0.7686667359642774</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.833315745432903</v>
+        <v>-7.341248890097342</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.117713285650346</v>
+        <v>-2.168627314990628</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.136165242518403</v>
+        <v>-1.226948710572205</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.925556101246729</v>
+        <v>2.377757525101122</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.721954412856082</v>
+        <v>10.28799982667138</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.02008774659309</v>
+        <v>6.711346239523559</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.862518677838857</v>
+        <v>4.284007312568615</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.653101769615891</v>
+        <v>7.565750454754951</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.43525003888174</v>
+        <v>10.16657185306936</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.428947150539504</v>
+        <v>1.319752176379164</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.267323439648965</v>
+        <v>6.424840489432395</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.496506629643399</v>
+        <v>6.82497056224613</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3485710095846457</v>
+        <v>-0.3454695220742474</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1180628192024061</v>
+        <v>-0.119353495986949</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.15994987710451</v>
+        <v>-0.1528403325944862</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2540840617872255</v>
+        <v>-0.2496425991206926</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1379186754617752</v>
+        <v>-0.1512037866437155</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04805620932855353</v>
+        <v>-0.02240135816272812</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2359989435158104</v>
+        <v>-0.2479387381652682</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.07484390337890461</v>
+        <v>-0.07273730708280973</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03968195525172319</v>
+        <v>-0.04264075160498162</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.09135467500673439</v>
+        <v>0.1243484185461717</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3968644259914194</v>
+        <v>0.4960420507069051</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3326342328638594</v>
+        <v>0.3298964561628989</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1797584149429804</v>
+        <v>0.1637778675588355</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2933402989820094</v>
+        <v>0.2902395989504353</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3588431282369028</v>
+        <v>0.3887157193552628</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06276338428742123</v>
+        <v>0.05513573021898238</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2468206842661145</v>
+        <v>0.2567617650484014</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2656342643931534</v>
+        <v>0.2803132172785933</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.440622372288058</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5.363241157664797</v>
+        <v>5.363241157664792</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>4.796459294115508</v>
@@ -1734,7 +1734,7 @@
         <v>3.776423782703045</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.828883044355401</v>
+        <v>4.828883044355406</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.832415672088612</v>
+        <v>-9.39002650250899</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.051449751716692</v>
+        <v>-7.951608241684732</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9350673447656885</v>
+        <v>-1.34569120967179</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.520399690347154</v>
+        <v>-1.485891999637163</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.363713852988021</v>
+        <v>2.19005116623337</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.042539685064301</v>
+        <v>-0.6193413118198158</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.015043306749873</v>
+        <v>-3.605644565660332</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.4072301955328861</v>
+        <v>-0.7858275581018037</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.8873301612972534</v>
+        <v>0.8197288751796086</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.373732708998377</v>
+        <v>3.465435496096169</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.869518206606636</v>
+        <v>4.218796539583155</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11.11458623114157</v>
+        <v>11.24188275004179</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.89129311407111</v>
+        <v>11.37467456311615</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>15.36478633162537</v>
+        <v>15.13420945913989</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.599197323589221</v>
+        <v>9.226279241309195</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.689164713166412</v>
+        <v>5.672891300268787</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.458153136678932</v>
+        <v>8.531150571885657</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.765681267548308</v>
+        <v>9.067890616642369</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.06760679991499664</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.2516909211025478</v>
+        <v>0.2516909211025475</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2209062313723784</v>
@@ -1839,7 +1839,7 @@
         <v>0.1754294332906019</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2243202205689735</v>
+        <v>0.2243202205689738</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4092827744489594</v>
+        <v>-0.3861607302241665</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3197904412905191</v>
+        <v>-0.3362856743809742</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.03343237785002203</v>
+        <v>-0.04404205703450582</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.07279476899949021</v>
+        <v>-0.06401993604754207</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.103093237720752</v>
+        <v>0.08866444950210429</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.04579706991173736</v>
+        <v>-0.02164966766756027</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1326536887255265</v>
+        <v>-0.1542724183046554</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.0121659212440231</v>
+        <v>-0.0304305113666287</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.03091004360313292</v>
+        <v>0.03551936504686343</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1924216761630042</v>
+        <v>0.2016142820775068</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2662915701803995</v>
+        <v>0.2332730603644613</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.634230487449608</v>
+        <v>0.6452347986280769</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5829429311477559</v>
+        <v>0.6057536469307502</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.855269015307131</v>
+        <v>0.8089818352969789</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5453427521374643</v>
+        <v>0.5165841447350022</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2931364001754571</v>
+        <v>0.2975539178358654</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4682116420464477</v>
+        <v>0.4319739553040057</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.455588609609944</v>
+        <v>0.4852071280307618</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>0.2086313705431914</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.847198796733965</v>
+        <v>1.847198796733968</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.9063994582316048</v>
@@ -1939,7 +1939,7 @@
         <v>3.354073045270445</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-0.00212757331821134</v>
+        <v>-0.002127573318214115</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-2.293157944256816</v>
@@ -1948,7 +1948,7 @@
         <v>2.121569803134951</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.7335721277100776</v>
+        <v>0.7335721277100804</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.616745966940755</v>
+        <v>-10.17961896228917</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.454608105493476</v>
+        <v>-6.299751475525642</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.306464675227481</v>
+        <v>-4.467550915180993</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.74664538513564</v>
+        <v>-5.958358151375217</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.010128325677374</v>
+        <v>-2.66843700475935</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.057656742931286</v>
+        <v>-4.658707719890018</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-6.220468826832133</v>
+        <v>-6.760367811934268</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.365705180869364</v>
+        <v>-2.573229024326767</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.981607389807386</v>
+        <v>-2.851988931616273</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.304885859283675</v>
+        <v>1.04273503693584</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.044698514756298</v>
+        <v>5.846336558630625</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.454169986384477</v>
+        <v>6.788804675754857</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.832183847300369</v>
+        <v>4.410799903667891</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>9.172564368139305</v>
+        <v>9.429400486181915</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.967895122416407</v>
+        <v>4.592085218407839</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.408127547112942</v>
+        <v>1.260278890918938</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.222554178857296</v>
+        <v>6.532920269407147</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.296134139174861</v>
+        <v>4.580167782429036</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.01553942934581582</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1375843676566415</v>
+        <v>0.1375843676566417</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.06521246689521565</v>
@@ -2044,7 +2044,7 @@
         <v>0.241314550050122</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.000153071919142243</v>
+        <v>-0.0001530719191424428</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1671821746982299</v>
@@ -2053,7 +2053,7 @@
         <v>0.1546725790739838</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.05348091435033035</v>
+        <v>0.05348091435033055</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5966175156895303</v>
+        <v>-0.604181533489673</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3709281027858891</v>
+        <v>-0.3552775090769008</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2474584735688024</v>
+        <v>-0.2677031542301681</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.382171633735093</v>
+        <v>-0.3569738384645617</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1794974747050538</v>
+        <v>-0.1461857813400523</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2875290014497367</v>
+        <v>-0.274396265441052</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3874355938740024</v>
+        <v>-0.41029137176949</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1473332481375393</v>
+        <v>-0.1535624260005854</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1864264029310466</v>
+        <v>-0.181223050663815</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1421287198550297</v>
+        <v>0.1125007018244982</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5893143205526282</v>
+        <v>0.6042142173664471</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7823162760035758</v>
+        <v>0.6589224056575121</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3640120823477257</v>
+        <v>0.4102332325244377</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8284941367057322</v>
+        <v>0.899327299406371</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4763967023919812</v>
+        <v>0.4140500385505754</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1277350579635865</v>
+        <v>0.1183302280954073</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.538668273845841</v>
+        <v>0.5902169652791625</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.3885130206844266</v>
+        <v>0.4210892019003573</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>4.180308805355986</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.444930485354501</v>
+        <v>1.444930485354506</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-1.019682379774528</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.302109184212839</v>
+        <v>-2.341038673798026</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.071696714370336</v>
+        <v>1.964559854069952</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.623296113197583</v>
+        <v>-0.8086241396994315</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.412678673514273</v>
+        <v>-3.458970927181257</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.7433017780272386</v>
+        <v>0.8215965402339795</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-2.087562141352672</v>
+        <v>-2.285180425265753</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.16988553791904</v>
+        <v>-2.241176392312098</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.14878470734824</v>
+        <v>2.210220138305912</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.9449490452102823</v>
+        <v>-0.92740479885669</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.917645267654746</v>
+        <v>2.095168759770614</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.363224860792151</v>
+        <v>6.378291584460401</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.663607569839572</v>
+        <v>3.940685132487172</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.125827603438019</v>
+        <v>1.108355757623114</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.575132685923541</v>
+        <v>5.393970529614571</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.9349162140566</v>
+        <v>1.997429852014223</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.020180013707229</v>
+        <v>1.077603191987176</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>5.347983971114615</v>
+        <v>5.284676791141659</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.142597670877042</v>
+        <v>2.309549351895767</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1680309685594636</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.05808017547510749</v>
+        <v>0.05808017547510771</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.03252859144367393</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.08944601908811287</v>
+        <v>-0.09072091781825461</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.07962651872465704</v>
+        <v>0.07655340029130164</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.02371968370103209</v>
+        <v>-0.03070909577148846</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1053449763184491</v>
+        <v>-0.1066301525484231</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02342532277615691</v>
+        <v>0.02397048127430636</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.06589089448642792</v>
+        <v>-0.06931003678113326</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.07517323027337172</v>
+        <v>-0.07690364972851514</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.07333788673288258</v>
+        <v>0.07698994286668302</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.03302026627629862</v>
+        <v>-0.03184020845804978</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.08040572346389144</v>
+        <v>0.08887782252351646</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2689483838627912</v>
+        <v>0.2676220357534412</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1536851294477536</v>
+        <v>0.1654410679877908</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.03778484042088746</v>
+        <v>0.03665103325390829</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1858516094627176</v>
+        <v>0.1781076319061716</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.06450812245955399</v>
+        <v>0.06564461042909307</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.0366973247172088</v>
+        <v>0.03936668962208205</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1950822850425769</v>
+        <v>0.1934029833660461</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.07803136133360319</v>
+        <v>0.08461223853667256</v>
       </c>
     </row>
     <row r="52">
